--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1443768.258466375</v>
+        <v>1441516.178755168</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283198</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>297.8191992371437</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>260.1478989722372</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>58.28185552386346</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>122.8356537495203</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>248.9676348088421</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>17.35112070699533</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>58.28185552386346</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>80.05940815143705</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>246.7053196171302</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>218.8748435506846</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1297,10 +1297,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>131.5522128412691</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386407</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>1.207068174443078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>46.52295781333109</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>46.86766651429451</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>114.7205611007755</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>37.41782514684062</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>35.02467705292147</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>212.5602966632231</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>212.5602966632236</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>118.6708469029954</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>55.52079624060465</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>55.52079624060473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>80.10107535865933</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>222.8161206669567</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,13 +3478,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>245.8796921214435</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1944.904841306683</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1575.942324366272</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520488</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.871647259408</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="Y2" t="n">
-        <v>2245.732315283596</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>739.2385409879452</v>
+        <v>190.5885343609918</v>
       </c>
       <c r="C4" t="n">
-        <v>570.3023580600383</v>
+        <v>190.5885343609918</v>
       </c>
       <c r="D4" t="n">
-        <v>420.1857186477025</v>
+        <v>190.5885343609918</v>
       </c>
       <c r="E4" t="n">
-        <v>272.2726250653094</v>
+        <v>190.5885343609918</v>
       </c>
       <c r="F4" t="n">
-        <v>125.382677567399</v>
+        <v>190.5885343609918</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>190.5885343609918</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>411.3811135045219</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181849</v>
+        <v>190.5885343609918</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1384.829779622645</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1384.829779622645</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1026.564081015895</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1026.564081015895</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>615.578176226287</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,7 +4577,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W5" t="n">
-        <v>2535.034709923658</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X5" t="n">
-        <v>2161.568951662578</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>1771.429619686767</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>445.4099384687679</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C7" t="n">
-        <v>445.4099384687679</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D7" t="n">
-        <v>295.2932990564321</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E7" t="n">
-        <v>147.380205474039</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F7" t="n">
-        <v>147.380205474039</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G7" t="n">
-        <v>147.380205474039</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>147.380205474039</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4759,16 +4759,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>445.4099384687679</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1881.708680670284</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1512.746163729873</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1154.480465123122</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>768.692212524878</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>357.7063077352704</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4838,16 +4838,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>2268.308520734406</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.5649387724261</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>788.005982746196</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y10" t="n">
-        <v>567.2134036026658</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327652</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>763.7541388327652</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>613.6374994204294</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>465.7244058380363</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>318.8344583401259</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1466.014387565342</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630049</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6673633290469</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>699.73118040114</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2331.083728933013</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2111.482263955954</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1822.407037300152</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1567.722549094265</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1278.305379057304</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1050.315828159287</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.315828159287</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,25 +5528,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.547769317909</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>593.6115863900021</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836018</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>565.7099969556949</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>565.7099969556949</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>417.7969033733018</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>270.9069558753914</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,16 +6005,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6078,7 +6078,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192457</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327652</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048583</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925226</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101294</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>149.8982754122191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>808.8888553856866</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C34" t="n">
-        <v>639.9526724577797</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D34" t="n">
-        <v>489.836033045444</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>341.9229394630509</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.329899359456</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.5373202159263</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="35">
@@ -6926,37 +6926,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7026,16 +7026,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
   </sheetData>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.3170701178258</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>179.1866975757061</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>66.30572490086911</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>111.1976478713717</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>130.4994612393474</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>4.845153664065123</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>73.62417772602058</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.76311574357382</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>125.5054897610399</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>9.000252501566052</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>65.31997266427192</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>63.36835372228745</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>6.257951202384504</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>61.40075786968296</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>922068.6358465404</v>
+        <v>922068.6358465401</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>922068.6358465402</v>
+        <v>922068.6358465403</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465404</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>922068.6358465404</v>
+        <v>922068.6358465403</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>922068.6358465402</v>
+        <v>922068.6358465403</v>
       </c>
     </row>
   </sheetData>
@@ -26314,37 +26314,37 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="F2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="F2" t="n">
-        <v>504466.6248062539</v>
-      </c>
       <c r="G2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="H2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062539</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062538</v>
@@ -26353,7 +26353,7 @@
         <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073545</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-1017124.324227861</v>
       </c>
       <c r="C6" t="n">
-        <v>311620.4214997313</v>
+        <v>311620.4214997311</v>
       </c>
       <c r="D6" t="n">
-        <v>311620.4214997313</v>
+        <v>311620.421499731</v>
       </c>
       <c r="E6" t="n">
-        <v>63104.93713312366</v>
+        <v>63070.19920768905</v>
       </c>
       <c r="F6" t="n">
-        <v>388517.3989404796</v>
+        <v>388482.6610150432</v>
       </c>
       <c r="G6" t="n">
-        <v>388517.3989404793</v>
+        <v>388482.6610150434</v>
       </c>
       <c r="H6" t="n">
-        <v>388517.3989404794</v>
+        <v>388482.6610150436</v>
       </c>
       <c r="I6" t="n">
-        <v>388517.3989404792</v>
+        <v>388482.6610150435</v>
       </c>
       <c r="J6" t="n">
-        <v>170986.1965432018</v>
+        <v>170951.4586177661</v>
       </c>
       <c r="K6" t="n">
-        <v>388517.3989404793</v>
+        <v>388482.6610150435</v>
       </c>
       <c r="L6" t="n">
-        <v>388517.3989404792</v>
+        <v>388482.6610150435</v>
       </c>
       <c r="M6" t="n">
-        <v>303462.3710049673</v>
+        <v>303427.6330795318</v>
       </c>
       <c r="N6" t="n">
-        <v>388517.3989404793</v>
+        <v>388482.6610150436</v>
       </c>
       <c r="O6" t="n">
-        <v>388517.3989404792</v>
+        <v>388482.6610150434</v>
       </c>
       <c r="P6" t="n">
-        <v>388517.3989404793</v>
+        <v>388482.6610150436</v>
       </c>
     </row>
   </sheetData>
@@ -26741,10 +26741,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483748</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84.91464242633685</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>126.0900396838164</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>107.7439527351648</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>21.91936116480052</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>161.9540908446113</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>186.5668494326248</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>16.29301225840103</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>164.2164060363233</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>108.8774149194503</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>94.15744254776803</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>160.3027978282307</v>
       </c>
     </row>
     <row r="11">
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>575.5951359912037</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>468.3778278510285</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,19 +32789,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,19 +33737,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33758,16 +33758,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663279</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,10 +34445,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597691</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>433.4611020691854</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>334.4034204366982</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
